--- a/ShoppingListForm.xlsx
+++ b/ShoppingListForm.xlsx
@@ -1080,14 +1080,32 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <x:c r="B13" s="1" t="s"/>
       <x:c r="D13" s="1" t="s"/>
+      <x:c r="E13" s="1" t="s"/>
       <x:c r="G13" s="0" t="s"/>
+      <x:c r="H13" s="1" t="s"/>
       <x:c r="K13" s="0" t="s"/>
+      <x:c r="L13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <x:c r="B14" s="1" t="s"/>
       <x:c r="D14" s="1" t="s"/>
+      <x:c r="E14" s="1" t="s"/>
       <x:c r="G14" s="0" t="s"/>
+      <x:c r="H14" s="1" t="s"/>
       <x:c r="K14" s="0" t="s"/>
+      <x:c r="L14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="D15" s="1" t="s"/>
